--- a/Planing/Overordnet tidslinje.xlsx
+++ b/Planing/Overordnet tidslinje.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au636523_uni_au_dk/Documents/Studie/4. Semester/E4PRJ4/E4PRJ4/Planlægning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au636523_uni_au_dk/Documents/Studie/4. Semester/E4PRJ4/E4PRJ4/Planing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{FEE08F68-634F-4E68-A4A7-CDC7D074F529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B44D3217-604C-4C30-9636-8A8A9B3E3848}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{FEE08F68-634F-4E68-A4A7-CDC7D074F529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F922AF77-2C79-48B3-B0FB-E22914787ED9}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{626F6DA4-A412-4634-A6DA-5F6716A3F7E1}"/>
+    <workbookView xWindow="20265" yWindow="1530" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{626F6DA4-A412-4634-A6DA-5F6716A3F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Aflevering</t>
   </si>
   <si>
-    <t>Indledning</t>
-  </si>
-  <si>
     <t>Krav</t>
   </si>
   <si>
@@ -63,14 +61,76 @@
   </si>
   <si>
     <t>Rapport</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Projektdefinering</t>
+  </si>
+  <si>
+    <t>Slut</t>
+  </si>
+  <si>
+    <t>Krav 1</t>
+  </si>
+  <si>
+    <t>Krav 2</t>
+  </si>
+  <si>
+    <t>Strukturering 1</t>
+  </si>
+  <si>
+    <t>Strukturering 2</t>
+  </si>
+  <si>
+    <t>Analyse 1</t>
+  </si>
+  <si>
+    <t>Analyse 2</t>
+  </si>
+  <si>
+    <t>Design 1</t>
+  </si>
+  <si>
+    <t>Design 2</t>
+  </si>
+  <si>
+    <t>Implementering 1</t>
+  </si>
+  <si>
+    <t>Implementering 2</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Møde</t>
+  </si>
+  <si>
+    <t>Dato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\/mm\/dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,10 +158,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,136 +490,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4088699-DE39-4A77-AB81-D25A5CDC3011}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F1" s="1">
         <v>44345</v>
       </c>
-      <c r="H1" s="2">
+      <c r="G1" s="2">
         <f ca="1">NOW()</f>
-        <v>44243.612701736114</v>
+        <v>44244.389099768516</v>
+      </c>
+      <c r="H1">
+        <f ca="1">F1-G1</f>
+        <v>100.61090023148427</v>
       </c>
       <c r="I1">
-        <f ca="1">G1-H1</f>
-        <v>101.3872982638859</v>
-      </c>
-      <c r="J1">
-        <f ca="1">I1/7</f>
-        <v>14.483899751983699</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <f ca="1">H1/7</f>
+        <v>14.372985747354894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44228</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44239</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3-B3</f>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3+7</f>
+        <v>44246</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"["&amp;A3&amp;" deadline] happens at "</f>
+        <v xml:space="preserve">[Projektdefinering deadline] happens at </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44242</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44253</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D9" si="0">C4-B4</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4+7</f>
+        <v>44260</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F9" si="1">"["&amp;A4&amp;" deadline] happens at "</f>
+        <v xml:space="preserve">[Krav deadline] happens at </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44256</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44267</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5+7</f>
+        <v>44274</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">[Strukturering deadline] happens at </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44270</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44281</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6+7</f>
+        <v>44288</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">[Analyse deadline] happens at </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <f>C7-21</f>
+        <v>44281</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44302</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7-21</f>
+        <v>44281</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7+7</f>
+        <v>44309</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">[Design deadline] happens at </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44305</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44323</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8+7</f>
+        <v>44330</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">[Implementering deadline] happens at </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44242</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44256</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44270</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44284</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44305</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B9" s="3">
         <v>44326</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="3">
+        <v>44337</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C9+0</f>
+        <v>44337</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">[Rapport deadline] happens at </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8692E4E6-CDC8-4153-906B-00379EA62E9E}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44326</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44344</v>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44244</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"&lt;b&gt;Dato: "&amp;TEXT(B2,"dd/mm/åååå")&amp;" Tidspunkt: "&amp;TEXT(C2,"tt:mm")&amp;" - "&amp;TEXT(D2,"tt:mm")&amp;"&lt;/b&gt;"</f>
+        <v>&lt;b&gt;Dato: 17/02/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7">
+        <f>B2+7</f>
+        <v>44251</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="0">"&lt;b&gt;Dato: "&amp;TEXT(B3,"dd/mm/åååå")&amp;" Tidspunkt: "&amp;TEXT(C3,"tt:mm")&amp;" - "&amp;TEXT(D3,"tt:mm")&amp;"&lt;/b&gt;"</f>
+        <v>&lt;b&gt;Dato: 24/02/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B13" si="1">B3+7</f>
+        <v>44258</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 03/03/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="1"/>
+        <v>44265</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 10/03/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="1"/>
+        <v>44272</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 17/03/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="1"/>
+        <v>44279</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 24/03/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7">
+        <f>B7+14</f>
+        <v>44293</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 07/04/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="1"/>
+        <v>44300</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 14/04/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="1"/>
+        <v>44307</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 21/04/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="1"/>
+        <v>44314</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 28/04/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="1"/>
+        <v>44321</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 05/05/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="1"/>
+        <v>44328</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;b&gt;Dato: 12/05/2021 Tidspunkt: 10:00 - 12:00&lt;/b&gt;</v>
       </c>
     </row>
   </sheetData>
